--- a/horario.xlsx
+++ b/horario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,134 +473,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Terça</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00:00 - 12:00</t>
+          <t>04:00 - 16:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Enfermeiro 1</t>
+          <t>fdfd</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12 horas</t>
+          <t>12 Horas</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>competencia1</t>
+          <t>C, o, m, p, e, t, e, n, c, i, a</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'Entrada': 3, 'Saida': 5, 'Pausas': 'n', 'Horas Extras': '0h'}</t>
+          <t>{'Entrada': 0, 'Saida': 12, 'Pausas': 1, 'Horas Extras': 12}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>Ocupado</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Segunda</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>04:00 - 16:00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Técnico 1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12 horas</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>competencia1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Ocupado</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Terça</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>06:00 - 18:00</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Não alocado</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12 horas</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>competencia2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Disponivel</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Quarta</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>08:00 - 20:00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Enfermeiro 2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12 horas</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>competencia2</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
         <is>
           <t>Ocupado</t>
         </is>

--- a/horario.xlsx
+++ b/horario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,35 +473,134 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>00:00 - 12:00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Enfermeiro 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12 horas</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>competencia1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>{'Entrada': 3, 'Saida': 5, 'Pausas': 'n', 'Horas Extras': '0h'}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Ocupado</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>04:00 - 16:00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Técnico 1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12 horas</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>competencia1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Ocupado</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Terça</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>04:00 - 16:00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>fdfd</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12 Horas</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>C, o, m, p, e, t, e, n, c, i, a</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>{'Entrada': 0, 'Saida': 12, 'Pausas': 1, 'Horas Extras': 12}</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>06:00 - 18:00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Não alocado</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12 horas</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>competencia2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Disponivel</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Quarta</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>08:00 - 20:00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Enfermeiro 2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12 horas</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>competencia2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Ocupado</t>
         </is>
